--- a/mosip_master/xlsx/machine_master_h.xlsx
+++ b/mosip_master/xlsx/machine_master_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wuriguineecom-my.sharepoint.com/personal/iteli_bah_wuriguinee_com/Documents/Bureau/master-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{41FAB55B-ADFC-4B39-BC3A-8BA7F4C9ED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{005408FB-9A71-4FE6-8AD9-0FE90360DA79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813254D8-7B43-4A8F-A52C-9B706A9B66D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -53,114 +53,6 @@
   </si>
   <si>
     <t>is_active</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAvLYkis3X4h5LFkJDXwvHp+2pQeJCZlJXkdTKHD1KRTm89GrpYX0u8skiOr9s7as2+bEqifgaY4fazCOZdBC3P0aDnh+S442kih4TRT8QElc6XonzUaUUWfa2kl11kgIJXijV7IbWRkH2N2afhPxCoLZA/rip/dGWMux6ukbJWKYkv/XXuGDIhTwA1CaYgtzxDuTLhbaYTBWJu61cHuLDqPiFepZ0+2woe0DQ+92tkIyy0cZlCBHHCoTAjLUqzoAIg95welYo333jIqZ+vtgq+pY1aCgrDXdpue0CUy9bOaiZ4WA6jK6i0LrWkR88jdsbxqffbyia1TWxTGAXv5zlrQIDAQAB</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FB5962911687</t>
-  </si>
-  <si>
-    <t>192.168.0.424</t>
-  </si>
-  <si>
-    <t>desktop-70qkdpb</t>
-  </si>
-  <si>
-    <t>F3-DB-84-00-FB-A2</t>
-  </si>
-  <si>
-    <t>93:3F:0E:BA:58:7D:49:7C:64:C5:45:27:E5:20:A6:31:A0:5C:24:64:06:77:31:48:8F:21:6A:67:54:FB:17:42</t>
-  </si>
-  <si>
-    <t>condeis-pc</t>
-  </si>
-  <si>
-    <t>desktop-77q2501</t>
-  </si>
-  <si>
-    <t>F3-DB-84-00-FB-A3</t>
-  </si>
-  <si>
-    <t>FB5962911688</t>
-  </si>
-  <si>
-    <t>192.168.0.425</t>
-  </si>
-  <si>
-    <t>93:3F:0E:BA:58:7D:49:7C:64:C5:45:27:E5:20:A6:31:A0:5C:24:64:06:77:31:48:8F:21:6A:67:54:FB:17:43</t>
-  </si>
-  <si>
-    <t>rshcherif</t>
-  </si>
-  <si>
-    <t>F3-DB-84-00-FB-A4</t>
-  </si>
-  <si>
-    <t>FB5962911689</t>
-  </si>
-  <si>
-    <t>192.168.0.426</t>
-  </si>
-  <si>
-    <t>93:3F:0E:BA:58:7D:49:7C:64:C5:45:27:E5:20:A6:31:A0:5C:24:64:06:77:31:48:8F:21:6A:67:54:FB:17:44</t>
-  </si>
-  <si>
-    <t>elhadj-hp-elitebook-2570p</t>
-  </si>
-  <si>
-    <t>F3-DB-84-00-FB-A5</t>
-  </si>
-  <si>
-    <t>FB5962911690</t>
-  </si>
-  <si>
-    <t>192.168.0.427</t>
-  </si>
-  <si>
-    <t>93:3F:0E:BA:58:7D:49:7C:64:C5:45:27:E5:20:A6:31:A0:5C:24:64:06:77:31:48:8F:21:6A:67:54:FB:17:45</t>
-  </si>
-  <si>
-    <t>wuri-dt-dsk</t>
-  </si>
-  <si>
-    <t>F3-DB-84-00-FB-A6</t>
-  </si>
-  <si>
-    <t>FB5962911691</t>
-  </si>
-  <si>
-    <t>192.168.0.428</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAkrYb0lz8Jnk7HNq8dCRrjHediKa1gWP2Yhpa5HE1yCarqpIOrcnZOgyVtaVCRLSKv5+Cw0zzZdvmbuQObf6RgnGaAw3rLP/BF81EWFHkN8/+F3OxnEYHzR4e88xXm4PPHWIuKQrnqp+gy98AFkbeJjK0NKod1CrWQc7vkrdgRZ1l3p5q4sBX1AsqytrtKAHqi/Ow82aLL/gLySvxnN5Gm2Yne2rvg85kPn8kYQ4xt1h8eN/JPxECblyE+kqbKzMOGSQU3P7EgmVl1++ot2Tsqj0a8uXgTjPjVlf+xxmjyCRkpjrM659rpvjAkIvHbfMIjiWzn+hIQjvvhAgK7IjVmQIDAQAB</t>
-  </si>
-  <si>
-    <t>9A:28:69:4C:40:05:78:15:58:C1:44:C6:37:36:C9:3A:20:70:92:9E:25:85:DB:BD:F9:29:FD:56:93:94:0D:14</t>
-  </si>
-  <si>
-    <t>teli_bah</t>
-  </si>
-  <si>
-    <t>F3-DB-84-00-FB-A7</t>
-  </si>
-  <si>
-    <t>FB5962911692</t>
-  </si>
-  <si>
-    <t>192.168.0.429</t>
-  </si>
-  <si>
-    <t>93:3F:0E:BA:58:7D:49:7C:64:C5:45:27:E5:20:A6:31:A0:5C:24:64:06:77:31:48:8F:21:6A:67:54:FB:17:47</t>
   </si>
   <si>
     <t>regcntr_id</t>
@@ -659,49 +551,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,7 +609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1013,15 +905,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1053,255 +945,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>91001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>1002</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>91002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>1002</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>91003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>1002</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>91004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>1002</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>91005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>1002</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>91006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>1002</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>91007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>1002</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/machine_master_h.xlsx
+++ b/mosip_master/xlsx/machine_master_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813254D8-7B43-4A8F-A52C-9B706A9B66D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61448568-3567-4312-93A4-18298E5862F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,273 @@
   </si>
   <si>
     <t>regcntr_id</t>
+  </si>
+  <si>
+    <t>validity_end_dtimes</t>
+  </si>
+  <si>
+    <t>sign_public_key</t>
+  </si>
+  <si>
+    <t>sign_key_index</t>
+  </si>
+  <si>
+    <t>DESKTOP-DKRGM9B</t>
+  </si>
+  <si>
+    <t>192.168.0.424</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQDvEuPA5XK9AeCyJHW90jdi7ynEUwx9ffs7DefxGpTqpajIL6snAMGpYixZL4EA4GHGO-6uLrC79IqlqruBwnJBzxJ_ebZ-9pnBpQDEhUtMZQLjA38Cw7muX-zgacPCxUBgId9qh6BIJL3ais6ONVaM6UwCTSlgdECCiQynhhz0CNn_sdXLsNrZYU_ci_7t49JYdCNJUk8nLvbd7X7TlSqMPeVOgSglSOa0rXDl7V3wXoYngDGVceAhibHKUcuUhHi2RUMyuEobjqX930dTO7YDg2gOA_UsYukSP650tqEG9N0mUbUjrAk5xyrn5DZWiFGcZsRaZG4w05kwZgA0cssR</t>
+  </si>
+  <si>
+    <t>89:f4:7e:35:3c:a3:dd:39:a6:d6:fe:cb:c5:b7:1a:59:d8:0f:db:9d:86:15:43:9c:17:a2:d5:1a:80:90:b9:40</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAzoT6B3cBc407u3OpGBJdvfg3hBvsJIJEEkddwxzyi1Qzry8qeqR99VuyyyddoYVwyk_9J66Ac9ZoFiNO9atUTVkYSztQtMgi0q41aNQ1vRlM25Xc8P-c_osqWDlJGps_jCDn8a260uJmg5pEhN4RNwNLwdrYM921I7a8kD_sNXLkofN8Pl-yyNgUavUWRoMcwLjT9oz1FUk8OMs9oBLApmYRLXTindNXXoq_e4Px4bJvcHXtCzUOyEYWwM45ee4NTtuH5fEAbGXu5Lmzlps2ovlfNmEij0gthW1BID19v0q7rxnznTBKJ1EDK2qzpLwG0antEBx379qQMicqxZcNBw</t>
+  </si>
+  <si>
+    <t>a5:7c:c0:66:95:d2:97:cf:8b:dd:6c:fa:08:fb:1a:d5:9e:ac:d1:ff:8a:be:27:a7:3c:bf:c8:2b:ef:5f:d5:ae</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>DESKTOP-A6G5PBO</t>
+  </si>
+  <si>
+    <t>12.43.345.54</t>
+  </si>
+  <si>
+    <t>145.343.3.34</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQC4WZiOt4TFM41f46RdhBEE9jt1ZqraTjvc31JhXIE12Jm3W9XfTaNVTrhfbBX_BnnxAg8IcRpoH4YndEnSQdfqPm4ziM8IocXgrHV-X25cm6BGhF4fgCuSmJDYh-5sYgU0LyagTq_XYNLBb7Zu3E8TBdqqIchPrnowr0QZUzEHX7bqpIUvhUIiSPc5prwrS0YezzcTNivRuT1rHQGoPXVJYiM6FIBN9XQc5fEvLzCfVUVH24HgEJ8x0Ni7jmogrwDAtlAGP0zcjTiH2rIRAEkh7aYu5_TDUY8I9akUGzm0p2uFXbDx6vytTh6U763cZvgT9KQATz2DkepuV9dbWMxd</t>
+  </si>
+  <si>
+    <t>0b:d2:aa:3e:f2:73:a0:06:e5:06:a0:17:a8:b9:28:6c:a0:30:4e:db:70:87:bc:58:06:83:ee:e4:38:54:1b:d9</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAyx7bNoCc0yn66Elx_Z3bJOLKF00UkkzYgUf46bHx53LhypqEvNMvRfz759AmL8lS2spMkXpbXz9RYB_Te-emy_jUOehDGaV6iSBe3I7ybgz7Yvq2_Fk1a98vlFDUr8L_HN33G-ErBuicpM0VOqh0rO8ChMkxMi4FelCOf5qVeMOmySwqrwsG6dyL5nbXW-TADc4agydr4WMIO8bAS5I9XIxKLe4HxwPIEFiV6wN3bwZa_Ew89luavKAV4BwBjVGkEOJqD47H7WgfCbayQFgjGkSeOEFNjVT72QxDPLf_Tkvue3HdKagqHxj4FfHIay8Wlgk8nQuS_x-uTypVUkASOQ</t>
+  </si>
+  <si>
+    <t>31:bc:c5:8e:8f:8a:33:dd:7e:d8:21:b3:b2:c4:c9:7e:b4:81:ea:bf:75:8e:69:1e:f6:eb:ed:1a:9b:d9:b5:12</t>
+  </si>
+  <si>
+    <t>mouctar-pc</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCkL5RT3gB0FoaocmaVWsGeASREBlS4IaxFV_duRaQZ4garTQVSNopSgO6pSiHsa2eoSe0NpKymw7SkuGLyYP78XrkTSUrPm3gfPe0ua2aMqKDjOyHy6N6-G7W8ZFHxqCbqgNGTZk7Ld5EiRMGdTRrrpTTI00wFnUBGgasgiUxUvPC8u468oQur-nIfDdAxY2x5ZeAg8Ti-1TcJ35BAQJiIdZPOtAoKbvaG_2Qe9oMT8-QNzjAskrkEa7-qHtSSioGyiw8t0KriUvKWC2LjyXFHrZxwAyd5ajt5PzLoTpGzmE3fV1Lvyg5PVe9Ez2-sRxyE4_ExB4QmUbYPEA4vXmzb</t>
+  </si>
+  <si>
+    <t>88:a8:25:d8:c4:48:39:60:99:f2:63:8c:06:f7:6a:70:25:7d:18:22:43:1a:7f:c2:72:3a:cd:23:37:ae:3f:cd</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAoJZAVF7KC38sc9mUEHQoYTQ4dBh12pSd6juuC_Id2Ap0XOGMXZRRwW2dpTASiM0-RJ7dJkR0rYmgThkXxqAJelCz7MOnKJPG_IiodgL-GmjesEqkSSwOTsC6WZgNwavH10OxsUu4nuhQ47msaVqO6DuZ_BM0Kp4U0mdvVDgLW_m8hj_Na6GMbvq7yi4Lnpii4pV4eWepaCNWbJNzzIqpVycBgzn7J6Dzr-qh1ZzY9cB4ls2GqdV86D4nKRGA3n4AjLszxF9JbWRS3L-ZG10Va1ahrdTtDLVwXJHHfd3lmDA5WDuStlXBcUpyiewZDEq-9e6BTwxsLLV5NhEiyJlQiQ</t>
+  </si>
+  <si>
+    <t>0a:5d:f5:3e:2f:12:31:b2:0a:8f:05:d9:50:6d:47:53:84:5e:85:1f:06:c6:e2:29:53:16:41:b5:84:28:87:7b</t>
+  </si>
+  <si>
+    <t>DESKTOP-C1VP34D</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQDAqRyB9mf35rUe8DbJTAL8LHboELalxor6uliYEJiGSVudZrcIztWmL8FIrNQ8k_GwFBRuy5uoRLlu83QKxcF2EEqF7fp-PA0D0fLU7ipobxbFiOk1K0BT30QafOoSvsDlbiXXy8-ce1wpzytkOhTxBUIGdp9eHoBPNhIHy8N4IIV-vj_ygM75Wn7FQLj3PwKi2mvyPJAiZrbxCqiJR1TddX4kLdGkvCQo6fYvGoO9gpLXaOUFcmJMfM9hMx7FA-pDN-n6CONZYRFwNJ-ydJYvC0M5cUbFEkWROKGi4rRNX-6b6ZmXftaaiFeqUDSFJIs-X8XxoPVoVnT9j2TfsQ2l</t>
+  </si>
+  <si>
+    <t>52:e9:29:90:b2:aa:90:17:1b:dd:98:03:35:3c:60:dd:04:74:e1:f1:1c:44:37:2b:d2:f0:b0:76:f7:df:de:ef</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAqDmoeeC-5vDN-rN0CK-yIXCzFEvBLKbxw4-ThMHTHTfq80axHbai03Ke_yxp1HBwVNDyAr_4VsrYB_q3sNy1mJPIxgvCk_UV3e4M1x2kzibp-fVG049ZpIVKLNsGqjtko8lM9HxmhGdZOCK8dcFZwNo5RXyJ326sY3kddgPpnxOSMIw5bCGMLrk-fSvQTpImYlORDLZmpffH0AsWPTxhA7wQE5NuEyG95JTVjvIJT-Y0h5vzULvb1fHg8tnNViBEKa1y23AdBz9_MQBzpMeJ8b8LWZEyi6znBf9TDyuECXxa3FAs2uJeqUMYZLiW91S77iOMV3CTJgbXgcItV3A4nw</t>
+  </si>
+  <si>
+    <t>29:3b:03:69:2b:e1:b1:ea:b4:98:d6:19:4d:53:44:96:d1:ae:71:77:65:9f:64:ad:95:c2:b1:a8:55:07:16:04</t>
+  </si>
+  <si>
+    <t>Teli-BAH</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCs9GMm0F2bVW64JDxo1R0_0br_1awZALeA15xMT-ZbbRa9OT_sEv5uwqd34gLQsA-qtkftKCEJXsqRDizA4pHXCNZVk57OOpea-zb0gZUEfGtR7YWyTTQMMfFw6_H5pFORSPgFkRAEDs4evO6tUg4kzb5Wuthdy8y4oBk_Bmjhe767KNmyoK0RqCX73CtAmYz1JmlsosmkleGJB77Q1jIIKW1p8HnX0D4HJzrb5-ZquaS6Hu4LzG-PffeGnOlONf0GZxOJ3pOlam37fu3FMGuaKsio9gym8_XsAloJOWh_7C1cCUEIxogZuxnCzeUIEtsjICl9UD_JD7xeN0MGTFLD</t>
+  </si>
+  <si>
+    <t>0b:a5:bd:66:b8:9e:d2:ed:3c:20:f9:9d:6f:dd:4e:77:12:f8:58:f9:8f:76:1f:43:30:67:e4:f0:60:fc:19:9f</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAs4l0j4Z4-F550dGrQwMGsnkKDmUgJhcg1ykMrvCUyAD4BLDt0KAsmogScY_JO99PDjQezgo1Rg_38jFrXuUyDMrNI13VDqw_r1pYVs3P6W1L-gYO1rYUP__YwA4__Pmo8sswNR5SGrR_IPUwdkCKHKx2oSFffuL2t5ntHB6p8kzPNblaYoD4ZvYxv5lnBHRozZ6NkoZ7kMrIj0ejKXzj_pKaqbb0Pr0yCagq0BmHh0ogQwCy_PUPR-1QY8EnJqfch_G9yNJP8aaec6p6vN0kYd9zvj1WHHBeEExCwzYZSiVnsrGqaJ1_2B1d4XZ1R_Dpre-aa_k89x10zdrroIx4ww</t>
+  </si>
+  <si>
+    <t>b5:72:82:ab:d0:d4:ed:20:59:a7:75:1e:55:a7:98:31:88:51:66:ef:8a:05:0d:b8:66:d0:79:88:2e:9d:01:11</t>
+  </si>
+  <si>
+    <t>KETHS</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCaMpNIn2-6DPS5RwnfDCtoCKMhrivPVcuiO4Q63PA2h3Lpaf5l31X2UQ5NbQ-wns1qsHmkN_OSke9LNSR319LR40Zys6yFd4vPcQXp4fHaUX4AawwX6bmrRhGuoOP4a7JV34EV1Ha2Ks03G6oLnltBnX1LGfc0hRztRdxrDoYW85Ljo1vLMPyHz3ZsmFYwedH8Hm0rqg-RiJXGaUk2E-ZiWq7Rgw7UMZErtNFcvM1rl14gSWBhL4BDRuPgzImGVF9KNnmtV4p0yukJIqQfjkBHftHssHRLZvHkRuRJKtsg1sdMKdzMc70ejJDMZ6QJkHe4dGCbo4ydo-z8qN6VESh3</t>
+  </si>
+  <si>
+    <t>e9:51:dd:f5:9e:90:a0:fc:3c:6f:07:76:60:e8:67:4a:1c:f8:06:ac:4d:46:f1:2b:b8:ce:45:10:c1:34:0f:75</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAutQI1eMr9D3-NgR9PLAWOkaUiI8JT-V6XInTuGBKV0DY5oae1TRp3pNK9Fbc0T7_WtGASr9yW9IjbEROV6PSWsmkX-vn6TeKWASb8zRh5CLlzDuDJR8kJhwmuhyS-bdv2Xg3dmFedP8fz_beZk2iBuB5GoWt87GhbXjNvkmR4de_20m26vCDpRiHhrK6bCuoVcsUyhvDkutrLTnb6Jn0UHu0KK1qetCOJSrNSuCX9p9oH7pIjc91D5Xjc-6RWJ7xvCbSGr55hD4U9XTWgiW2GfeROjp_GQn1Tj394CbthbF8oCJTD3WaL9un95NLIJ3FRSslo__sQNS0ZHJoMTNqiQ</t>
+  </si>
+  <si>
+    <t>b7:51:23:48:9f:d9:a4:ca:dd:50:a7:f3:d6:56:6e:24:1e:cb:36:aa:8b:d0:a5:2a:89:76:eb:70:a4:73:4b:5b</t>
+  </si>
+  <si>
+    <t>DESKTOP-77Q2501</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQC399FGAga8ipGt4C5ZKjRh8y2XcwA0mlStWRtiZTBjDwa461JFJj2-8xDVOZy8jnyMy8NYce2PYFw8B2CmAo0f5It6QI18D6D16Ldfl8VILblTITT9Stk8ABsZseishS2q09lPIjPKiLwoXZIZIwJN0u43SN2Nv36ZUHnPklO7jsQxmXZAE41v_i8kk8b06dtgT-hY4DVQb_CV0cVw1rpaYP5HN-82UuKRCQPGhsElhEMnW3AdppDVirXA5BezL9ehJlq7aOwpBWwYAbT31ttofkxgSj5UC6iN6w9P8YSLZ7JmatMuUHg8EpiZyCX6x0HU-wk5mxWyixKut2jPTqff</t>
+  </si>
+  <si>
+    <t>c7:f4:1d:0c:fc:8d:52:e3:41:d3:13:ac:80:47:e4:1c:87:aa:50:68:44:95:be:61:aa:ac:66:38:a0:9d:47:bc</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAp8CR5yspRRrQHH8gNSNUJGp03AGeOmldkyjGFgPy9HSoCS8TIvmk5YJfZLvRy_VWyegWDYsbD2RugPFpsKRBnRHXAwSmV9QerhEtDPHq-y5oTMTr5PNTzoVTlqZLQblgIfRQtP2xFKWHpnx7QRJ0pa6NwWIJiXc87Jraao3JGVxcu7nbowwHSSFt-dwlGg0WxyOuQLVlyvNWCaiIvui8Rr0R91qCnhGTmv70fsguzvSs6qZYYVt4lpESRqWkL5Xkjfhj-pW6eFVya0LTytm2eLFVOPOTVtHTtKVtkUO6swutGWVjbIv57EHlMYPwf62M0HVLChWkNBy0b89ZieBK3Q</t>
+  </si>
+  <si>
+    <t>3a:e3:1c:b2:2e:4d:1e:9e:bd:be:63:d8:49:21:a8:33:3e:7c:64:f8:05:bd:7f:bd:84:36:fb:6b:e2:56:7e:f8</t>
+  </si>
+  <si>
+    <t>LAPTOP-1NMTMPFK</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQDlJQ9yNUtYyIgRllaeLbce3XeE7IrXMOC_UV7gNetk92c3jp3b5VXGak8aQc7-zQ57UYwkCmdoWCAReileZz43pthRxW6RpHPFUe_atDCknKU2R1avS9DC_ZY2YIjpYJJCBmj_UHXCTf64Pgv-b-hs655YoqwVBTN-C6_Z3iiZoFeh-10ZgjrSfDW94KBI0jq56hQoVAxP7RoviRcazjOQVxmOJhjfGUOd343hQaakqMlh0Jc4rZxgwU62DVTj3pSqWenvcFvKyKiVtKwtZKKGUcxWZrJXY8aNQs1-EcGb2rgeygPWvc6nqNgABRp48lGIRtYOk6C4yTrU7CDYl8DP</t>
+  </si>
+  <si>
+    <t>fc:4f:e0:79:8d:f8:07:49:1f:5f:20:f9:a6:2c:8f:a4:6e:97:59:ce:de:bb:74:1d:44:70:68:97:49:90:7b:46</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAyMOEYUDtO8Ec3oXLdSKsWiULeYgMzQlOgTdA1Vtn7a38ufE6KsEJgw5hIDHooIjZkp0PN3KzSG0cYdKk5SPc42DhFR7HjHmG-HyCAEOiT_mtvQVg8Vy1BJFBqo4GJIIqBx6Ut7JDgnsLvM_oX4JwHmLA_C_EuiY0F9QuvnErXTjTWVNSQntqU6aB0uO4AKSaNPWzuD84-8hsiaisapQpL8BNDxFo5tG2JeRk79ndelxw47O1j7FZdRHkHHexMNolo1DCX37FA9UooI2Dg_dWNZzzct9r9qCz6q_XAIObPBvF3HeSal169akrcQ1M1dXY7XVAgPv42gIy0Dt2pW8Luw</t>
+  </si>
+  <si>
+    <t>76:f3:ad:33:52:ac:2f:ec:e9:06:10:5f:1c:73:59:dd:55:b5:51:d0:28:e8:a2:99:d6:af:ef:ce:3a:1f:9b:fc</t>
+  </si>
+  <si>
+    <t>DESKTOP-4MNH9RR</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQDAmGaoaRgMtOKZGtUjG7tf00p1RVO6CoENlevVgi2mrvR4MdftLtPB6UprHXrlDs5i_VCNg8F06X2OScRr2mZweDaW_c7eDjmY8zmFToCGj1S8JMFjqSLO6kURKl6B9pYingIyK6urd8cUWHg5cn1ShPfMEd-ftFIZ1dkalIiFAKTHzvHHHMJlKlpJ1xfdvP0bkeCq67WZVDTCICZbVYlqpuPzlXaFtTZ1Uxh7V683xdBseTZws1tT_rlb5k1WXkAn-isTFRFH3vnnQuCTqQx_tNKVYfL50zYubnCQFEphHetIKMk-CGabqm2dlqpS-XE7MMYn1XCobrrNoP6PQQ7f</t>
+  </si>
+  <si>
+    <t>ef:f4:b3:e2:14:a2:d4:3c:5e:86:17:ab:c9:fe:ac:56:6d:f5:83:ef:2f:61:09:b2:d1:6a:60:ae:9c:ca:82:9f</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAyW0VqDrCJJuZXvfo12Ch03IJPSiLsl8itggaD8Tpr4UkPPQPLUmkrf06iBVM5MsIqgIaIduyIfIZdnH6TharYfOlEtNuaYDFeBQpO1QsA6yKxls1UJUpcXFm-rmb2r2D0TL9bSngPSLjX1EERTfaL2WM_Pr9f4JRN2BxLJbRBJD2poXGnKSog6EiiYckAfY-cUwGmjRBz_LMgwaWHZb78ez3bRf8PfFoqPJ-626EP3hraSI2C_PntV_R51ISn9Nu-RCWeuhpjbIMntaBwqtEvHs8rOoQ8-T8U9AjCRKlSYFPNVVUhFkrkxFgY4OJvNMo6kaCWgUMQUhkdCRTtx41zQ</t>
+  </si>
+  <si>
+    <t>75:35:d9:f1:75:b8:7e:87:7e:bb:ab:38:94:04:6e:1b:90:a1:0a:d1:55:62:56:38:8c:c1:6e:2d:d8:eb:19:3e</t>
+  </si>
+  <si>
+    <t>Thales-pc-2</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCvF3XyVxAgAYfJukLD_jgG9Gn1lzphQ-YRKcVsadx9aWlladgq2IRIshahX-Uprr9DKJxyxTUMLqZW_quYoA7-rARb6ih1t6QM_pGSz2VOL22ytJ605m9pw2OGFVnPXodmT-N_lnGKJw1cRCSnT4uuR_m34HtxkdCfQgQocjPWA5b8tcvnnOkeZ362N2gfbbT1p9SqR_4WzhwM6lJImvkkEloUmPCI_wrncUK87eyaHLdsshR8PfP7tg5e_dnUntwEgxRgoHkPrIduO0AztDt9edK_6-Xb-MAAyvVvGfXu_EtpJSQPobQKprmp9QdzmDEm7Eg3zTNSd-nfb4IZnmgv</t>
+  </si>
+  <si>
+    <t>29:9e:0a:39:db:be:43:d4:36:02:e1:02:5e:0b:9f:f9:a5:01:ca:b0:09:6d:6e:a8:0f:9d:29:80:b0:88:d2:cd</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEA15pLAjkdP9KG2m9alUFtmCxHbAFL9L5ox79jCPIMrk1AzdYZ7dQch_YEv0bHQn5TXj3pzutb_Xzdl3KVoFmPU9NbpyPUcc-E-av78BlAxodjwpmj8XGdRSdkds7xExKvRyn7I2GEtdIqCGfu7yxm8e8-5hLjLYFD9ctr5DTLbZrQakAnKf5qws6DI6TrypSNxrU2tapaZlCQnFymKroktpU81wgkqV7zY-yWNB70kV1QxxwnYdMxIjs3KcVf8DsP0WsPoSvRfqW1tUtLtQBHZwIIauGH6wcG6gh758F_SBSZSS5VwLl5G7W_NzaEk0uZt_-FXZgIMhOxAdVrM50VYw</t>
+  </si>
+  <si>
+    <t>26:25:5a:a9:52:72:65:53:61:82:42:c4:fd:d7:0e:84:15:22:50:88:66:a1:eb:a2:9d:d7:3b:c0:18:4a:39:30</t>
+  </si>
+  <si>
+    <t>DESKTOP-DC1S58D</t>
+  </si>
+  <si>
+    <t>12.54.678.76</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCj8hOvaqvMX4AU5OLd59S0fxrN4yhBKT30672eJYQCWocHr3ebwzPl2nkrsKw-gCpTZK7Xc4LEkhJzGvak54neNrLr5u8IhWmPWZldIxMsQ3hUws6M5W4-mlnMFxkF55pKc1XsKW51ksvp02r0W7el_0F_bChfogAgFJFi_G2tsDL7gcHMTWzEEhw-UV1Rn79cErXx7Bh4Cz3zPQsl15J7z36qPoTR5WvFznAsaaxrr5h-OGD-zmfKJ224WRSReuVyXbosB2guSjaWRsMOGiv0qG2whstpHiLhdnDoCLnizwOIIQ9lzIjN8YOpgzefFgi1aCyMIvxNQ69atjorCJvn</t>
+  </si>
+  <si>
+    <t>4d:44:97:f2:13:6a:98:60:69:c0:08:c5:1b:3e:60:b4:e9:15:d6:b3:65:21:db:e8:9d:ed:5c:88:c6:c3:f7:20</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAqKrNJiKu-EKUsT3XUmeZAPLbGnsy8k2WDBOkoTam02xUi5b85toS2OmJt6cLrNu8p8Nnq9i3jcbSg75JJidxhy-7EmgBRYRdK1PVbu84Vf_Rv7UJeUpkuOGYFOfY4aJ0XPyn2rjjVNxzLkI4w23jj6mO6wEHQyvX8NmkP-BDYCeA2T_oXVxWgxJAryAbkBJvPoQ4JcjlMNfF3mJ3vG0KjmFZXwFaIt4aYdglsiAioCkI2blVZsrf9Qj2lQO3FgqbaN202N9b3_mvH7AF8hlpYiV4YbwlIRedeXtPy7fVC-Ay_OivqhIZyGd-abdyw71XjWcpN6REHyZu6oCcLsaLhQ</t>
+  </si>
+  <si>
+    <t>c8:14:06:5a:86:2d:0d:c9:94:bd:be:bd:47:c7:b5:ca:0a:51:98:ee:5d:a9:02:9f:9d:5b:44:ac:a6:e4:23:fa</t>
+  </si>
+  <si>
+    <t>DESKTOP-S5V1IRH</t>
+  </si>
+  <si>
+    <t>36:7F:F9:03:9B:65</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCnedTUOirqvG2SzF4278C2FdAOxJkRf00-PrckzvJ6JJiR0TdD0eM1kot8h5g6ihGixHUgabEuJ8BwB8COVp_5294pGUo_Bw7WPpPMVB-3VUTH1MPQueSN0rL-qpXkn5CR4YCGIEveTk79A5zFltenosZyjGuWvhZjc-naydrQybiVP3cq9ylnCqmg-TViCMGh1hTPB-wHyRbenkmIt8TBnVAWP3wALX1ZtOukuFxLsrGZxT-Z80DADZCOTMOhXo6Pjj12YZwcF2waz6VidUX0zrlEMSMduEl3a0za7t_rLH-mM5LWac30Ze5uroJbeCoSXvq040qK7bRBBQ0TD_i_</t>
+  </si>
+  <si>
+    <t>36:7f:f9:03:9b:65:5b:f6:fd:72:43:4a:89:69:34:87:55:db:10:4e:75:28:b8:c5:66:c1:32:9f:0b:86:f1:57</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEAx2vWmPKsN95SvH6nECW4s_aH0_zp3M5VwonSlQwJlpO1wc6FFahvYPbC-r3ePrwQl6GYoWFj9JwshWnSKMxQMlZDJ4OIz8ddqP_QJ36dRB8k209kv44bFsq37e1eFy1tPohv49cK08DHA5pCk555tVahiEonhNhIwmmnILsJsqVPP5f3bAj2IqtZPUHhZeqe6lGYegED8p-Aup2P0nJvqHWIo35SH2ljtuVuURNZHErWkBlehRjcuZjl8K6cB144euo_2oljPOEwMuXCIEwN2XPcB8_JfwoFlPJYZM5C5CpQdoAp4A0T2IcH0GXkhPYV2bi298Q_zuuCohPnCb91mw</t>
+  </si>
+  <si>
+    <t>1d:36:f3:54:a7:4a:71:80:5d:64:cc:b3:3b:32:55:c0:ab:f2:17:eb:88:d8:63:bc:d2:02:65:f2:0a:fe:4e:3c</t>
+  </si>
+  <si>
+    <t>NambiMOSIP</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>5CD238M490</t>
+  </si>
+  <si>
+    <t>172.21.20.19</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQC7b9pUJLnUBgRgxfrXCO66WWmVuF5R5BpxXwAUCIlHp6pZabb6z_nKFWtPFZXK4YIrY3I0r6ogKgpc-0J7uJ9xXVaG6Px-hUFLQgRAF6oK_3c1mVnIa3ze14hmbENIw7Azj80aM_9l19JaO4vqaNBdCJQVWWbC7WOrQLNaKDZ6feR1bFYEg_N8PLysNHStz7L23bboB_cv9E7ep5le6bAO3zziUEMOcXEov1_8KErZtjQrtB9EHuJd3WKV2LyPFfyBl5YJlXnKud1b-DBB3LvC6nJPUl0kmI8O9rHEMuhPPh3V2ijWfXn8REu3aMyCw8aQSfilAm8DO19JdkJUhg1F</t>
+  </si>
+  <si>
+    <t>68:e8:07:f3:48:c4:5d:40:6c:a0:fb:b4:cb:0e:ad:38:6c:fe:78:db:79:ba:f2:60:c3:fa:f4:b0:3d:24:a9:c2</t>
+  </si>
+  <si>
+    <t>AAEABAAEAHIAAAAQABQACwgAAAEAAQEA0XPxia5mu_zZ2jl1OPK2tZV8iZCC7MCuUHj8hwYzxU-9lxJWN37JklsY2V6T9pom_mNavhl9VL3zHV8Hqmq-Drq7PeMreBZtC69tyHKw63bGGRXv05jUmYOihvkBZXXICWNOz7csvVELVCgWRuAAkpdblq-2oaAdGzXkIJOHM7sM-aqPKNnR8Fnb-aLQpZlJJ2tlTQGJLaCQcRgkbo1eSXAi6edH2mohI0vDRPKNmCV8CLsLxkzHKD4tQbpz2ZxSq8egH67N_fcm7v-jimnrkG_Y8VhXrhIYp9WiZDm6kX54RyQwOhJdO05fY2tfX9hcPnxfwdhSxrbFdq8TUOpLAw</t>
+  </si>
+  <si>
+    <t>17:8a:66:06:da:48:92:82:10:be:bb:2b:8c:46:9a:52:f8:4e:37:eb:42:6b:7d:02:2a:6c:cc:bf:f5:e8:5d:f4</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>eff_dtimes</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>imouctar</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>avanish</t>
   </si>
 </sst>
 </file>
@@ -547,8 +814,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -905,32 +1174,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -942,13 +1211,2693 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46419.875</v>
+      </c>
+      <c r="G2">
+        <v>1001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>45079.633586226853</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>45079.633586226853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1234567890</v>
+      </c>
+      <c r="D3">
+        <v>1234567890</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>46419.875</v>
+      </c>
+      <c r="G3">
+        <v>1001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>10000</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>45079.633586226853</v>
+      </c>
+      <c r="R3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="2">
+        <v>45079.633898611108</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>45079.633898611108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>111111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45446.770833333336</v>
+      </c>
+      <c r="G4">
+        <v>1001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>10000</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1103</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>45086.186960798608</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>45086.186960798608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>111111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45446.770833333336</v>
+      </c>
+      <c r="G5">
+        <v>1001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1103</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>45086.186960798608</v>
+      </c>
+      <c r="R5">
+        <v>1103</v>
+      </c>
+      <c r="S5" s="2">
+        <v>45086.187033541668</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45086.187033541668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>123456789</v>
+      </c>
+      <c r="D6">
+        <v>123456789</v>
+      </c>
+      <c r="E6">
+        <v>123456789</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45444</v>
+      </c>
+      <c r="G6">
+        <v>1001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>10000</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>45093.483540532405</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>45093.483540532405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>123456789</v>
+      </c>
+      <c r="D7">
+        <v>123456789</v>
+      </c>
+      <c r="E7">
+        <v>123456789</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="G7">
+        <v>1001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>10000</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>45093.483540532405</v>
+      </c>
+      <c r="R7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="2">
+        <v>45093.483674074072</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>45093.483674074072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>123456789</v>
+      </c>
+      <c r="D8">
+        <v>123456789</v>
+      </c>
+      <c r="E8">
+        <v>123456789</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45444</v>
+      </c>
+      <c r="G8">
+        <v>1001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8">
+        <v>10000</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>45093.483540532405</v>
+      </c>
+      <c r="R8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="2">
+        <v>45093.49143425926</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>45093.49143425926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1234567</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9">
+        <v>123456</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45442</v>
+      </c>
+      <c r="G9">
+        <v>1001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <v>10000</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>45093.502667581015</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>45093.502667581015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>1234567</v>
+      </c>
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10">
+        <v>123456</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45442</v>
+      </c>
+      <c r="G10">
+        <v>1001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>10000</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>45093.502667581015</v>
+      </c>
+      <c r="R10" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="2">
+        <v>45093.502834965278</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>45093.502834965278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>1234567890</v>
+      </c>
+      <c r="D11">
+        <v>1234567890</v>
+      </c>
+      <c r="E11">
+        <v>1234567890</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45435.875</v>
+      </c>
+      <c r="G11">
+        <v>1001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>10000</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>45093.502667581015</v>
+      </c>
+      <c r="R11">
+        <v>1103</v>
+      </c>
+      <c r="S11" s="2">
+        <v>45093.508927152776</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>45093.508927152776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>1234567890</v>
+      </c>
+      <c r="D12">
+        <v>1234567890</v>
+      </c>
+      <c r="E12">
+        <v>123456789</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45444</v>
+      </c>
+      <c r="G12">
+        <v>1001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12">
+        <v>10000</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>45093.483540532405</v>
+      </c>
+      <c r="R12" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="2">
+        <v>45093.514740289349</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>45093.514740289349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>1234567890</v>
+      </c>
+      <c r="D13">
+        <v>1234567890</v>
+      </c>
+      <c r="E13">
+        <v>1234567890</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45444</v>
+      </c>
+      <c r="G13">
+        <v>1001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>10000</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>45093.483540532405</v>
+      </c>
+      <c r="R13" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="2">
+        <v>45093.51502741898</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>45093.51502741898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>10006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>123456</v>
+      </c>
+      <c r="D14">
+        <v>123456</v>
+      </c>
+      <c r="E14">
+        <v>123456</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45657</v>
+      </c>
+      <c r="G14">
+        <v>1001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14">
+        <v>10000</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>45093.532206875003</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>45093.532206875003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>10006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>123456</v>
+      </c>
+      <c r="D15">
+        <v>123456</v>
+      </c>
+      <c r="E15">
+        <v>123456</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45657</v>
+      </c>
+      <c r="G15">
+        <v>1001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>10000</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>45093.532206875003</v>
+      </c>
+      <c r="R15" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="2">
+        <v>45093.532374027774</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>45093.532374027774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>10007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>1234567890</v>
+      </c>
+      <c r="D16">
+        <v>1234567890</v>
+      </c>
+      <c r="E16">
+        <v>1234567890</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45775</v>
+      </c>
+      <c r="G16">
+        <v>1001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>10000</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>45096.537843842591</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>45096.537843842591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>10008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>1234567890</v>
+      </c>
+      <c r="D17">
+        <v>1234567890</v>
+      </c>
+      <c r="E17">
+        <v>1234567890</v>
+      </c>
+      <c r="F17" s="1">
+        <v>52932</v>
+      </c>
+      <c r="G17">
+        <v>1001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>10000</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>45096.537862384263</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>45096.537862384263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>10007</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>1234567890</v>
+      </c>
+      <c r="D18">
+        <v>1234567890</v>
+      </c>
+      <c r="E18">
+        <v>1234567890</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45775</v>
+      </c>
+      <c r="G18">
+        <v>1001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>10000</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>45096.537843842591</v>
+      </c>
+      <c r="R18" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="2">
+        <v>45096.538053761571</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>45096.538053761571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>10008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>1234567890</v>
+      </c>
+      <c r="D19">
+        <v>1234567890</v>
+      </c>
+      <c r="E19">
+        <v>1234567890</v>
+      </c>
+      <c r="F19" s="1">
+        <v>52932</v>
+      </c>
+      <c r="G19">
+        <v>1001</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>10000</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>45096.537862384263</v>
+      </c>
+      <c r="R19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" s="2">
+        <v>45096.538240416667</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>45096.538240416667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>10009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>123456</v>
+      </c>
+      <c r="D20">
+        <v>123456</v>
+      </c>
+      <c r="E20">
+        <v>123456</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45508</v>
+      </c>
+      <c r="G20">
+        <v>1001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10000</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>45127.630019965276</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>45127.630019965276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>10009</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>123456</v>
+      </c>
+      <c r="D21">
+        <v>123456</v>
+      </c>
+      <c r="E21">
+        <v>123456</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45508</v>
+      </c>
+      <c r="G21">
+        <v>1001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10000</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>45127.630019965276</v>
+      </c>
+      <c r="R21" t="s">
+        <v>97</v>
+      </c>
+      <c r="S21" s="2">
+        <v>45127.630262974541</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>45127.630262974541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>123</v>
+      </c>
+      <c r="D22">
+        <v>789</v>
+      </c>
+      <c r="E22">
+        <v>567</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45131.770833333336</v>
+      </c>
+      <c r="G22">
+        <v>1001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10000</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>45132.272436284722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>123</v>
+      </c>
+      <c r="D23">
+        <v>789</v>
+      </c>
+      <c r="E23">
+        <v>567</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45131.770833333336</v>
+      </c>
+      <c r="G23">
+        <v>1001</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10000</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R23" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23" s="2">
+        <v>45132.272840428239</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>45132.272840428239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>111111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45446.770833333336</v>
+      </c>
+      <c r="G24">
+        <v>1001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>10000</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1103</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>45086.186960798608</v>
+      </c>
+      <c r="R24" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24" s="2">
+        <v>45132.281090821758</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>45132.281090821758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10009</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>123456</v>
+      </c>
+      <c r="D25">
+        <v>123456</v>
+      </c>
+      <c r="E25">
+        <v>123456</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45508</v>
+      </c>
+      <c r="G25">
+        <v>1001</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10000</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>45127.630019965276</v>
+      </c>
+      <c r="R25" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" s="2">
+        <v>45132.471114085645</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>45132.471114085645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>10010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>123</v>
+      </c>
+      <c r="D26">
+        <v>789</v>
+      </c>
+      <c r="E26">
+        <v>567</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45131.770833333336</v>
+      </c>
+      <c r="G26">
+        <v>1001</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>10000</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R26" t="s">
+        <v>99</v>
+      </c>
+      <c r="S26" s="2">
+        <v>45132.551497175926</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>45132.551497175926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>10010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>123</v>
+      </c>
+      <c r="D27">
+        <v>789</v>
+      </c>
+      <c r="E27">
+        <v>567</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45131.770833333336</v>
+      </c>
+      <c r="G27">
+        <v>1001</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>10000</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R27" t="s">
+        <v>99</v>
+      </c>
+      <c r="S27" s="2">
+        <v>45132.55165040509</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>45132.55165040509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>10010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>123</v>
+      </c>
+      <c r="D28">
+        <v>789</v>
+      </c>
+      <c r="E28">
+        <v>567</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45133.770833333336</v>
+      </c>
+      <c r="G28">
+        <v>1001</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28">
+        <v>10016</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S28" s="2">
+        <v>45134.420107071761</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>45134.420107071761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <v>123</v>
+      </c>
+      <c r="D29">
+        <v>789</v>
+      </c>
+      <c r="E29">
+        <v>567</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45133.770833333336</v>
+      </c>
+      <c r="G29">
+        <v>1001</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10000</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" s="2">
+        <v>45134.432647650465</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>45134.432647650465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>10010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>123</v>
+      </c>
+      <c r="D30">
+        <v>789</v>
+      </c>
+      <c r="E30">
+        <v>567</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45133.770833333336</v>
+      </c>
+      <c r="G30">
+        <v>1001</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>10000</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R30" t="s">
+        <v>100</v>
+      </c>
+      <c r="S30" s="2">
+        <v>45134.441134930552</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>45134.441134930552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>10010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>123</v>
+      </c>
+      <c r="D31">
+        <v>789</v>
+      </c>
+      <c r="E31">
+        <v>567</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45133.770833333336</v>
+      </c>
+      <c r="G31">
+        <v>1001</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>10000</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R31" t="s">
+        <v>100</v>
+      </c>
+      <c r="S31" s="2">
+        <v>45134.44155974537</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>45134.44155974537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>10010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32">
+        <v>123</v>
+      </c>
+      <c r="D32">
+        <v>789</v>
+      </c>
+      <c r="E32">
+        <v>567</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45133.770833333336</v>
+      </c>
+      <c r="G32">
+        <v>1001</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>10000</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R32" t="s">
+        <v>97</v>
+      </c>
+      <c r="S32" s="2">
+        <v>45134.450427152777</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>45134.450427152777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>10010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33">
+        <v>123</v>
+      </c>
+      <c r="D33">
+        <v>789</v>
+      </c>
+      <c r="E33">
+        <v>567</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45133.770833333336</v>
+      </c>
+      <c r="G33">
+        <v>1001</v>
+      </c>
+      <c r="H33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>10000</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R33" t="s">
+        <v>97</v>
+      </c>
+      <c r="S33" s="2">
+        <v>45134.471940185183</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>45134.471940185183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>10010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>123</v>
+      </c>
+      <c r="D34">
+        <v>789</v>
+      </c>
+      <c r="E34">
+        <v>567</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45133.770833333336</v>
+      </c>
+      <c r="G34">
+        <v>1001</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>10000</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R34" t="s">
+        <v>97</v>
+      </c>
+      <c r="S34" s="2">
+        <v>45134.472292025464</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>45134.472292025464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>10010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35">
+        <v>123</v>
+      </c>
+      <c r="D35">
+        <v>789</v>
+      </c>
+      <c r="E35">
+        <v>567</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45134.770833333336</v>
+      </c>
+      <c r="G35">
+        <v>1001</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>10016</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R35" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" s="2">
+        <v>45135.47654822917</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>45135.47654822917</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>10010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>123</v>
+      </c>
+      <c r="D36">
+        <v>789</v>
+      </c>
+      <c r="E36">
+        <v>567</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45134.770833333336</v>
+      </c>
+      <c r="G36">
+        <v>1001</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>10016</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R36" t="s">
+        <v>100</v>
+      </c>
+      <c r="S36" s="2">
+        <v>45135.476686979164</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>45135.476686979164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>10010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <v>123</v>
+      </c>
+      <c r="D37">
+        <v>789</v>
+      </c>
+      <c r="E37">
+        <v>567</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45134.770833333336</v>
+      </c>
+      <c r="G37">
+        <v>1001</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <v>10000</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>45132.272436284722</v>
+      </c>
+      <c r="R37" t="s">
+        <v>100</v>
+      </c>
+      <c r="S37" s="2">
+        <v>45135.490874166666</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>45135.490874166666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>10011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <v>123456</v>
+      </c>
+      <c r="D38">
+        <v>123456</v>
+      </c>
+      <c r="E38">
+        <v>123456</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45894</v>
+      </c>
+      <c r="G38">
+        <v>1001</v>
+      </c>
+      <c r="H38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38">
+        <v>10000</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>45161.551144027777</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>45161.551144027777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>10011</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>123456</v>
+      </c>
+      <c r="D39">
+        <v>123456</v>
+      </c>
+      <c r="E39">
+        <v>123456</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45894</v>
+      </c>
+      <c r="G39">
+        <v>1001</v>
+      </c>
+      <c r="H39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>10000</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>45161.551144027777</v>
+      </c>
+      <c r="R39" t="s">
+        <v>97</v>
+      </c>
+      <c r="S39" s="2">
+        <v>45166.494799178239</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>45166.494799189815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>10012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>111111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45446.770833333336</v>
+      </c>
+      <c r="G40">
+        <v>1001</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40">
+        <v>10000</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>45169.440657314815</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>45169.440657314815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>10012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>111111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45446.770833333336</v>
+      </c>
+      <c r="G41">
+        <v>1001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41">
+        <v>10000</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>45169.440657314815</v>
+      </c>
+      <c r="R41" t="s">
+        <v>99</v>
+      </c>
+      <c r="S41" s="2">
+        <v>45169.440737222219</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>45169.440737222219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>10013</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>76544</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45656.770833333336</v>
+      </c>
+      <c r="G42">
+        <v>1001</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>10000</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>45176.260521400465</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>45176.260521400465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>10013</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>76544</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45656.770833333336</v>
+      </c>
+      <c r="G43">
+        <v>1001</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" t="s">
+        <v>81</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43">
+        <v>10000</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>45176.260521400465</v>
+      </c>
+      <c r="R43" t="s">
+        <v>99</v>
+      </c>
+      <c r="S43" s="2">
+        <v>45176.260592256942</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>45176.260592256942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>10014</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45190.770833333336</v>
+      </c>
+      <c r="G44">
+        <v>1001</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" t="s">
+        <v>89</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>10000</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>45191.303184143515</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>45191.303184143515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>10014</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45190.770833333336</v>
+      </c>
+      <c r="G45">
+        <v>1001</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" t="s">
+        <v>89</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>10000</v>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>45191.303184143515</v>
+      </c>
+      <c r="R45" t="s">
+        <v>99</v>
+      </c>
+      <c r="S45" s="2">
+        <v>45191.303600416664</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>45191.303600416664</v>
       </c>
     </row>
   </sheetData>
